--- a/xlsx/國家美式足球聯盟_intext.xlsx
+++ b/xlsx/國家美式足球聯盟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美式足球</t>
   </si>
   <si>
-    <t>政策_政策_美國_國家美式足球聯盟</t>
+    <t>体育运动_体育运动_室内美式足球_國家美式足球聯盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
